--- a/Jogos_do_Dia/2023-02-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.82</v>
       </c>
       <c r="M2" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="N2" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
-        <v>4.25</v>
+        <v>4.06</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>4.82</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -763,10 +763,10 @@
         <v>4.12</v>
       </c>
       <c r="M3" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -876,7 +876,7 @@
         <v>1.57</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -983,10 +983,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="N5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>

--- a/Jogos_do_Dia/2023-02-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="G2" t="n">
         <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.82</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -680,10 +680,10 @@
         <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
         <v>1.67</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.06</v>
+        <v>4.35</v>
       </c>
       <c r="H3" t="n">
-        <v>4.82</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -790,10 +790,10 @@
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="X3" t="n">
         <v>1.57</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="N4" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -983,10 +983,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
